--- a/data/trans_orig/P41C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>145787</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132133</v>
+        <v>132485</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150803</v>
+        <v>151168</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9501620465445333</v>
+        <v>0.950162046544533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8611706813862781</v>
+        <v>0.863466594234708</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9828493577714138</v>
+        <v>0.9852289981354115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>238</v>
@@ -762,19 +762,19 @@
         <v>167178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>164089</v>
+        <v>164107</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168791</v>
+        <v>168813</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9867757723094565</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.968543840371364</v>
+        <v>0.9686537826935424</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9963006163224071</v>
+        <v>0.9964315725310908</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>368</v>
@@ -783,19 +783,19 @@
         <v>312965</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>299584</v>
+        <v>298809</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>318818</v>
+        <v>319078</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.969375248680852</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9279310859315074</v>
+        <v>0.925530561288892</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9875059659801091</v>
+        <v>0.9883109685063381</v>
       </c>
     </row>
     <row r="5">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1752</v>
+        <v>1745</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002037609160468299</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01033890071072833</v>
+        <v>0.01029972785579383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1923</v>
+        <v>1744</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001069243729148102</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.005956799006878298</v>
+        <v>0.005402960589173164</v>
       </c>
     </row>
     <row r="6">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2805</v>
+        <v>2883</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003297023809700593</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01655593075477672</v>
+        <v>0.0170173888050584</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3157</v>
+        <v>2740</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001730126710150894</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009779066792070591</v>
+        <v>0.008487089877658364</v>
       </c>
     </row>
     <row r="7">
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8908</v>
+        <v>10355</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01772263679622117</v>
+        <v>0.01772263679622116</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05805554728383186</v>
+        <v>0.06748775577316128</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9406</v>
+        <v>8587</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00842261075296678</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0291331643149893</v>
+        <v>0.02659792069671347</v>
       </c>
     </row>
     <row r="8">
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18064</v>
+        <v>17354</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03211531665924579</v>
+        <v>0.03211531665924577</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1177318519386056</v>
+        <v>0.1131069503091128</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4721</v>
+        <v>5367</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007889594720374675</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02786590641927338</v>
+        <v>0.03167897649385901</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1043,19 +1043,19 @@
         <v>6264</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1773</v>
+        <v>1405</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19475</v>
+        <v>25396</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01940277012688221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005490743727433841</v>
+        <v>0.0043505804485357</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0603215046567713</v>
+        <v>0.07866146908743335</v>
       </c>
     </row>
     <row r="9">
@@ -1147,19 +1147,19 @@
         <v>269864</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>262903</v>
+        <v>263021</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>273703</v>
+        <v>274001</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9763831370295613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9511988425298854</v>
+        <v>0.9516261936105754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9902759217452737</v>
+        <v>0.9913516608280265</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>336</v>
@@ -1168,19 +1168,19 @@
         <v>257747</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>250001</v>
+        <v>249969</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>263068</v>
+        <v>263329</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9483341049298678</v>
+        <v>0.9483341049298677</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9198349489974225</v>
+        <v>0.9197185080357791</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9679134523048099</v>
+        <v>0.9688723450393613</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>556</v>
@@ -1189,19 +1189,19 @@
         <v>527609</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>518565</v>
+        <v>517809</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>534778</v>
+        <v>534839</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9624763533046986</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9459767900862348</v>
+        <v>0.9445977450783045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9755535956726862</v>
+        <v>0.9756647922829591</v>
       </c>
     </row>
     <row r="11">
@@ -1231,19 +1231,19 @@
         <v>2339</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6154</v>
+        <v>6662</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008604354085836683</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002640375170181854</v>
+        <v>0.002637794278646178</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02264274349744897</v>
+        <v>0.02451245095918226</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1252,19 +1252,19 @@
         <v>2339</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7022</v>
+        <v>6771</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004266061336397206</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001336252667621155</v>
+        <v>0.001321220994726062</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01281049304609496</v>
+        <v>0.01235265136679008</v>
       </c>
     </row>
     <row r="12">
@@ -1281,19 +1281,19 @@
         <v>4206</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11464</v>
+        <v>10139</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01521897359274776</v>
+        <v>0.01521897359274777</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003489191560961735</v>
+        <v>0.003477078863622423</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04147595075264973</v>
+        <v>0.03668526407005102</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1302,19 +1302,19 @@
         <v>7290</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4033</v>
+        <v>3676</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12836</v>
+        <v>12555</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02682078832981617</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01483730667102727</v>
+        <v>0.01352480202879371</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04722795871414284</v>
+        <v>0.04619485748819077</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -1323,19 +1323,19 @@
         <v>11496</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5994</v>
+        <v>6357</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18689</v>
+        <v>19597</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02097118378634279</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01093351191064626</v>
+        <v>0.01159706444942499</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03409240931924842</v>
+        <v>0.03575005357752382</v>
       </c>
     </row>
     <row r="13">
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3592</v>
+        <v>2883</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002438569358642874</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0132151259330956</v>
+        <v>0.0106085791093276</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3799</v>
+        <v>3278</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001209049087618726</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006930751165745917</v>
+        <v>0.005980086445247481</v>
       </c>
     </row>
     <row r="14">
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7971</v>
+        <v>8156</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.008397889377691014</v>
+        <v>0.008397889377691016</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02883795191836685</v>
+        <v>0.02950972972192344</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1436,19 +1436,19 @@
         <v>3751</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9749</v>
+        <v>9649</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01380218329583652</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00359953605465608</v>
+        <v>0.003621320150360392</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03587121155617968</v>
+        <v>0.03550063115071973</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1457,19 +1457,19 @@
         <v>6072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2535</v>
+        <v>2138</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13435</v>
+        <v>12906</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0110773524849424</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004624577473168657</v>
+        <v>0.003900247685596755</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02450828025545803</v>
+        <v>0.02354342792205527</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>90196</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83995</v>
+        <v>84012</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93725</v>
+        <v>93683</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9410825020633879</v>
+        <v>0.9410825020633881</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.876379697301806</v>
+        <v>0.8765562948337454</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9779033885942738</v>
+        <v>0.9774633502159403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>155</v>
@@ -1582,19 +1582,19 @@
         <v>127149</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>120850</v>
+        <v>121787</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>130358</v>
+        <v>130315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9623109103645023</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9146338100188343</v>
+        <v>0.9217254817252866</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9865959903764611</v>
+        <v>0.9862716233224873</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>225</v>
@@ -1603,19 +1603,19 @@
         <v>217345</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>208968</v>
+        <v>209252</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>222123</v>
+        <v>222497</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9533861302231994</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9166405282210494</v>
+        <v>0.917882867924074</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9743434621538449</v>
+        <v>0.975985693707676</v>
       </c>
     </row>
     <row r="17">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7086</v>
+        <v>8342</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02356564419750136</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07393170660781617</v>
+        <v>0.08703768435454715</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3601</v>
+        <v>3537</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005364048075361924</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02725508994749622</v>
+        <v>0.02677199610916954</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1674,19 +1674,19 @@
         <v>2967</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8226</v>
+        <v>8985</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01301630543289353</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00307806484480023</v>
+        <v>0.003132642061686006</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03608246399671533</v>
+        <v>0.0394137668858671</v>
       </c>
     </row>
     <row r="18">
@@ -1706,16 +1706,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7047</v>
+        <v>7947</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.02353945239475619</v>
+        <v>0.0235394523947562</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07352619177838236</v>
+        <v>0.08291819275269063</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1724,19 +1724,19 @@
         <v>2118</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>672</v>
+        <v>48</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5715</v>
+        <v>5670</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01602689548386076</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.005082421282424031</v>
+        <v>0.0003639699892802555</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04325106298237881</v>
+        <v>0.04291329962715805</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1745,19 +1745,19 @@
         <v>4374</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1771</v>
+        <v>1417</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11047</v>
+        <v>10456</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01918530085169271</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.00776692405023277</v>
+        <v>0.006216485629037186</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04845623385257312</v>
+        <v>0.04586500982159063</v>
       </c>
     </row>
     <row r="19">
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6575</v>
+        <v>6274</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008273383170791257</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04975914130198852</v>
+        <v>0.04748362800663111</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6594</v>
+        <v>5615</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004795113637969426</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02892633600856321</v>
+        <v>0.02462916007524787</v>
       </c>
     </row>
     <row r="20">
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6372</v>
+        <v>5684</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0118124013443545</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06648212378346473</v>
+        <v>0.0593092022190734</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5832</v>
+        <v>5099</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008024762905483715</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04413983878465585</v>
+        <v>0.03859116777166847</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7663</v>
+        <v>7911</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00961714985424498</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03361499796011953</v>
+        <v>0.03470171726626923</v>
       </c>
     </row>
     <row r="21">
@@ -1983,19 +1983,19 @@
         <v>161353</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>152888</v>
+        <v>153608</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>165894</v>
+        <v>166284</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9486469488834597</v>
+        <v>0.9486469488834599</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8988805012452622</v>
+        <v>0.9031145534142184</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.975345243712104</v>
+        <v>0.97764068377333</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>242</v>
@@ -2004,19 +2004,19 @@
         <v>189754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>183310</v>
+        <v>183386</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>194382</v>
+        <v>194353</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9475351190182332</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9153544146918144</v>
+        <v>0.9157371575892029</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9706444154326287</v>
+        <v>0.9704996728446587</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>386</v>
@@ -2025,19 +2025,19 @@
         <v>351107</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>340403</v>
+        <v>341612</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>357625</v>
+        <v>357978</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9480457415363378</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9191443416454901</v>
+        <v>0.9224079412901628</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9656455692828682</v>
+        <v>0.9665981248711888</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>5664</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2119</v>
+        <v>2100</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12252</v>
+        <v>12930</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.03330245203210294</v>
+        <v>0.03330245203210295</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01245872581926584</v>
+        <v>0.01234821109532942</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.072031516624756</v>
+        <v>0.07601981903285362</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -2122,19 +2122,19 @@
         <v>6531</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3016</v>
+        <v>3398</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12388</v>
+        <v>12652</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.0326117700697223</v>
+        <v>0.03261177006972229</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01506049986974365</v>
+        <v>0.01696895160916333</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06186147608604974</v>
+        <v>0.06317900265688933</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -2143,19 +2143,19 @@
         <v>12195</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6920</v>
+        <v>6636</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20306</v>
+        <v>20232</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03292897486325283</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01868644119788931</v>
+        <v>0.01791874840780296</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05482861455408843</v>
+        <v>0.05463097200117482</v>
       </c>
     </row>
     <row r="25">
@@ -2219,19 +2219,19 @@
         <v>3070</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8308</v>
+        <v>8521</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01805059908443716</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004507450501693115</v>
+        <v>0.004597909285717061</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04884348126246155</v>
+        <v>0.05009845895857929</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2240,19 +2240,19 @@
         <v>3976</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1518</v>
+        <v>1496</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8866</v>
+        <v>8601</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01985311091204467</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007580933798442001</v>
+        <v>0.007467886736058377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04427024526937313</v>
+        <v>0.04294989037141721</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2261,19 +2261,19 @@
         <v>7046</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3404</v>
+        <v>3102</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13454</v>
+        <v>13837</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01902528360040932</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009191475682598139</v>
+        <v>0.008375874826769046</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03632732648995913</v>
+        <v>0.03736127674985999</v>
       </c>
     </row>
     <row r="27">
@@ -2365,19 +2365,19 @@
         <v>667199</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>651482</v>
+        <v>651464</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>677007</v>
+        <v>677039</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9589573099965937</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9363672898306971</v>
+        <v>0.9363412448171015</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9730537027928151</v>
+        <v>0.9731001850846482</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>971</v>
@@ -2386,19 +2386,19 @@
         <v>741827</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>730543</v>
+        <v>730680</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>749955</v>
+        <v>751072</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9589332215429412</v>
+        <v>0.9589332215429414</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9443469703428035</v>
+        <v>0.9445237899396953</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9694399367520797</v>
+        <v>0.970884660516398</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1535</v>
@@ -2407,19 +2407,19 @@
         <v>1409027</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1391219</v>
+        <v>1391048</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1423038</v>
+        <v>1424276</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.9589446277088652</v>
+        <v>0.958944627708865</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9468250543767649</v>
+        <v>0.9467083006610995</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9684799331437639</v>
+        <v>0.9693223845951091</v>
       </c>
     </row>
     <row r="29">
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8110</v>
+        <v>6904</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003246273349717245</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01165652556014512</v>
+        <v>0.009923701755738342</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2457,19 +2457,19 @@
         <v>3393</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1060</v>
+        <v>1097</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7616</v>
+        <v>7902</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004385388325771142</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001370230698101801</v>
+        <v>0.001418185383477256</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.00984550408343657</v>
+        <v>0.01021453847828217</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2478,19 +2478,19 @@
         <v>5651</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2522</v>
+        <v>2156</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11485</v>
+        <v>11753</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.003846003996228223</v>
+        <v>0.003846003996228222</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001716682973913673</v>
+        <v>0.001467102005061008</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.007816579956258979</v>
+        <v>0.007999003205178698</v>
       </c>
     </row>
     <row r="30">
@@ -2507,19 +2507,19 @@
         <v>12127</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5698</v>
+        <v>6321</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20245</v>
+        <v>21557</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01742969798511778</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008189470839848223</v>
+        <v>0.009084396494846535</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02909730926135344</v>
+        <v>0.03098350434871404</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -2528,19 +2528,19 @@
         <v>16497</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10739</v>
+        <v>11039</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24670</v>
+        <v>24640</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02132460985974546</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01388241606838983</v>
+        <v>0.01426978081060599</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03188965385797604</v>
+        <v>0.03185167340531251</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>34</v>
@@ -2549,19 +2549,19 @@
         <v>28623</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19630</v>
+        <v>19785</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39643</v>
+        <v>39607</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.01948032330896852</v>
+        <v>0.01948032330896851</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01335965678236628</v>
+        <v>0.01346485208736651</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02697973820035046</v>
+        <v>0.02695569910114646</v>
       </c>
     </row>
     <row r="31">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10128</v>
+        <v>9287</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.00390835017857249</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01455642816074509</v>
+        <v>0.01334845636686174</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5898</v>
+        <v>6784</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002269826087684969</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.007624186389670507</v>
+        <v>0.008769705644575248</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -2620,19 +2620,19 @@
         <v>4475</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1326</v>
+        <v>1453</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11966</v>
+        <v>11978</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00304568650281612</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0009023875201735111</v>
+        <v>0.0009889951570535259</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.008143736453578172</v>
+        <v>0.008151690429962714</v>
       </c>
     </row>
     <row r="32">
@@ -2649,19 +2649,19 @@
         <v>11451</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5400</v>
+        <v>4696</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26204</v>
+        <v>24296</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0164583684899988</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007761735871135336</v>
+        <v>0.006749286117148874</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03766265408551926</v>
+        <v>0.03492099246508702</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -2670,19 +2670,19 @@
         <v>10124</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5561</v>
+        <v>5746</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17165</v>
+        <v>17647</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01308695418385704</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007188694942393675</v>
+        <v>0.007427807473873537</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02218812328499666</v>
+        <v>0.02281109496408146</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>20</v>
@@ -2691,19 +2691,19 @@
         <v>21575</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13610</v>
+        <v>12966</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>37181</v>
+        <v>36803</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01468335848312212</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009262833688105715</v>
+        <v>0.0088241477845106</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02530418962882743</v>
+        <v>0.02504720173985761</v>
       </c>
     </row>
     <row r="33">
